--- a/analysis/xlsx/2024/2024_성별_매출.xlsx
+++ b/analysis/xlsx/2024/2024_성별_매출.xlsx
@@ -477,15 +477,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2500584000</v>
+        <v>2672450000</v>
       </c>
       <c r="D2" t="n">
-        <v>2556299300</v>
+        <v>2746811800</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024년도 남 - 공급가액: 2500584000.0, 예측 공급가액: 2556299300.0
-2024년도 여 - 공급가액: 2701770000.0, 예측 공급가액: 2772526880.0</t>
+          <t>2024년도 남 - 공급가액: 2672450000.0, 예측 공급가액: 2746811800.0
+2024년도 여 - 공급가액: 2529904000.0, 예측 공급가액: 2582014380.0</t>
         </is>
       </c>
     </row>
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2701770000</v>
+        <v>2529904000</v>
       </c>
       <c r="D3" t="n">
-        <v>2772526880</v>
+        <v>2582014380</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
